--- a/knowledge_representation/grasp analysis.xlsx
+++ b/knowledge_representation/grasp analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mytomorrows/Documents/VU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mytomorrows/Documents/VU/pepper/knowledge_representation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFE2888-E5EF-C545-9887-E3370ABB580F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4620903-1983-2742-A5BF-B5F7F377A36F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
   <si>
     <t>subject</t>
   </si>
@@ -141,12 +141,6 @@
     <t>sem</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
   </si>
   <si>
     <t>links any entity to an agent -&gt; mention must be an entity</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>has time and has actor and has subevent</t>
   </si>
 </sst>
 </file>
@@ -281,13 +281,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -673,7 +673,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -685,20 +685,20 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
@@ -714,16 +714,16 @@
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -762,10 +762,10 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -811,39 +811,39 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="1"/>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
@@ -852,15 +852,18 @@
         <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
@@ -877,7 +880,7 @@
         <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -892,20 +895,20 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -916,7 +919,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -949,13 +952,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -969,10 +972,10 @@
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -986,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1000,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1025,15 +1028,15 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1044,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1061,10 +1064,10 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1072,19 +1075,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">

--- a/knowledge_representation/grasp analysis.xlsx
+++ b/knowledge_representation/grasp analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mytomorrows/Documents/VU/pepper/knowledge_representation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4620903-1983-2742-A5BF-B5F7F377A36F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6660F673-1621-7C47-BEF1-C41711BFCA16}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="63">
   <si>
     <t>subject</t>
   </si>
@@ -51,9 +51,6 @@
     <t>grasp</t>
   </si>
   <si>
-    <t>grasp?</t>
-  </si>
-  <si>
     <t>chat</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t>remove source</t>
-  </si>
-  <si>
-    <t>no grasp actor, only sem actor</t>
-  </si>
-  <si>
     <t>prov:wasAttributedTo</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>Add isRelativeOf agent and agent</t>
   </si>
   <si>
-    <t>remove grasp</t>
-  </si>
-  <si>
     <t>Map 'leolani' to robot (self)</t>
   </si>
   <si>
@@ -204,12 +192,6 @@
     <t>can be defined by inference</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>questions still</t>
-  </si>
-  <si>
     <t>define statement, is attribution for (inverse of has attribution)</t>
   </si>
   <si>
@@ -229,6 +211,9 @@
   </si>
   <si>
     <t>has time and has actor and has subevent</t>
+  </si>
+  <si>
+    <t>has time and has actor</t>
   </si>
 </sst>
 </file>
@@ -602,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,25 +620,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -664,16 +649,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -682,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -693,41 +678,41 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -736,10 +721,10 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -747,25 +732,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -773,22 +758,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -796,406 +781,425 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
         <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/knowledge_representation/grasp analysis.xlsx
+++ b/knowledge_representation/grasp analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mytomorrows/Documents/VU/pepper/knowledge_representation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6660F673-1621-7C47-BEF1-C41711BFCA16}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D760AD-E093-A647-B818-083894693106}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,7 +825,7 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>

--- a/knowledge_representation/grasp analysis.xlsx
+++ b/knowledge_representation/grasp analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mytomorrows/Documents/VU/pepper/knowledge_representation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D760AD-E093-A647-B818-083894693106}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F0CB2-EC24-EE42-A4E8-5CEDAF7ABF58}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="76">
   <si>
     <t>subject</t>
   </si>
@@ -51,9 +51,6 @@
     <t>grasp</t>
   </si>
   <si>
-    <t>chat</t>
-  </si>
-  <si>
     <t>Actor</t>
   </si>
   <si>
@@ -120,93 +117,33 @@
     <t>grasp:wasAttributedTo</t>
   </si>
   <si>
-    <t>gaf:denotedBy</t>
-  </si>
-  <si>
-    <t>gaf:denotedIn</t>
-  </si>
-  <si>
-    <t>gaf:denotes</t>
-  </si>
-  <si>
-    <t>gaf:containsDenotation</t>
-  </si>
-  <si>
     <t>TO ADD</t>
   </si>
   <si>
     <t>sem</t>
   </si>
   <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>prov:wasAttributedTo</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>Add visited between agent place</t>
   </si>
   <si>
     <t>Add isRelativeOf agent and agent</t>
   </si>
   <si>
-    <t>Map 'leolani' to robot (self)</t>
-  </si>
-  <si>
-    <t>Things to upload before paradiso</t>
-  </si>
-  <si>
-    <t>If no type, make it owl thing</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
     <t>Instance and Actor</t>
   </si>
   <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>sem agent not linked to prov agent</t>
-  </si>
-  <si>
     <t>namespace</t>
   </si>
   <si>
-    <t>leolani world</t>
-  </si>
-  <si>
-    <t>any relation in our social ontology</t>
-  </si>
-  <si>
-    <t>leolani talk</t>
-  </si>
-  <si>
-    <t>leolani friends</t>
-  </si>
-  <si>
     <t>can be defined by inference</t>
   </si>
   <si>
-    <t>define statement, is attribution for (inverse of has attribution)</t>
-  </si>
-  <si>
     <t>Turn</t>
   </si>
   <si>
     <t>prov:wasDerivedFrom</t>
   </si>
   <si>
-    <t>entity to entity -&gt;  attribution must be entity</t>
-  </si>
-  <si>
-    <t>links any entity to an agent -&gt; mention must be an entity</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -214,6 +151,108 @@
   </si>
   <si>
     <t>has time and has actor</t>
+  </si>
+  <si>
+    <t>leolaniWorld:Instances</t>
+  </si>
+  <si>
+    <t>leolaniWorld:Claims</t>
+  </si>
+  <si>
+    <t>leolaniFriends</t>
+  </si>
+  <si>
+    <t>leolaniTalk:Perspectives</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>DateTimeDescription</t>
+  </si>
+  <si>
+    <t>leolaniTime</t>
+  </si>
+  <si>
+    <t>owl-time</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>exact mention of statement</t>
+  </si>
+  <si>
+    <t>sem:hasActor</t>
+  </si>
+  <si>
+    <t>A statement is subclass of instance and event</t>
+  </si>
+  <si>
+    <t>has time and has actor and has place</t>
+  </si>
+  <si>
+    <t>grasp:denotedBy</t>
+  </si>
+  <si>
+    <t>grasp:denotedIn</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>grasp:denotes</t>
+  </si>
+  <si>
+    <t>grasp:containsDenotation</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script </t>
+  </si>
+  <si>
+    <t>All friends must be actors and instances</t>
+  </si>
+  <si>
+    <t>who said this</t>
+  </si>
+  <si>
+    <t>what is the perspective on this</t>
+  </si>
+  <si>
+    <t>sem:hasTime</t>
+  </si>
+  <si>
+    <t>need to create in ontology</t>
+  </si>
+  <si>
+    <t>link in ontology and in script</t>
+  </si>
+  <si>
+    <t>make Leolani entity a self.</t>
+  </si>
+  <si>
+    <t>our social ontology</t>
+  </si>
+  <si>
+    <t>sem:hasSubevent</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>leolaniWorld</t>
+  </si>
+  <si>
+    <t>leolaniTalk</t>
+  </si>
+  <si>
+    <t>leolaniTalk:Interactions</t>
   </si>
 </sst>
 </file>
@@ -257,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -272,6 +311,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,29 +632,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,586 +667,1474 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
         <v>50</v>
       </c>
-      <c r="L11" t="s">
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="4"/>
+      <c r="G22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4"/>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
+      <c r="A29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>28</v>
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="E65" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/knowledge_representation/grasp analysis.xlsx
+++ b/knowledge_representation/grasp analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mytomorrows/Documents/VU/pepper/knowledge_representation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F0CB2-EC24-EE42-A4E8-5CEDAF7ABF58}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="78">
   <si>
     <t>subject</t>
   </si>
@@ -253,6 +252,12 @@
   </si>
   <si>
     <t>leolaniTalk:Interactions</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>object/person</t>
   </si>
 </sst>
 </file>
@@ -312,10 +317,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +661,7 @@
     <col min="13" max="13" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -726,7 +731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -753,14 +758,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -785,12 +790,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
@@ -813,7 +818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -839,7 +844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -865,7 +870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -891,7 +896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -920,7 +925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -949,8 +954,11 @@
       <c r="M10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -979,8 +987,11 @@
       <c r="M11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1007,13 +1018,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1030,7 +1041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1153,7 @@
       <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="G22" t="s">
         <v>62</v>
@@ -1161,7 +1172,7 @@
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="4"/>
       <c r="H23" t="s">
         <v>69</v>
@@ -1195,13 +1206,13 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1212,11 +1223,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1390,10 +1401,10 @@
       <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,7 +1469,7 @@
       <c r="C47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1471,7 +1482,7 @@
       <c r="C48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1484,7 +1495,7 @@
       <c r="C49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1592,7 +1603,7 @@
       <c r="C59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1605,7 +1616,7 @@
       <c r="C60" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1618,7 +1629,7 @@
       <c r="C61" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1663,7 +1674,7 @@
       <c r="B66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E66" t="s">
@@ -1797,7 +1808,7 @@
       <c r="B78" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1914,7 +1925,7 @@
       <c r="B90" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2036,7 +2047,7 @@
       <c r="B102" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>5</v>
       </c>
     </row>
